--- a/RUDN/Importance/Varible_muatal_reg_in_Southern Europe.xlsx
+++ b/RUDN/Importance/Varible_muatal_reg_in_Southern Europe.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="481">
   <si>
     <t>GNI per capita, PPP (current international $)</t>
   </si>
@@ -22,30 +22,30 @@
     <t>GNI per capita, Atlas method (current US$)</t>
   </si>
   <si>
+    <t>Mortality rate, under-5 (per 1,000 live births)</t>
+  </si>
+  <si>
     <t>Mortality rate, under-5 (per 1,000)</t>
   </si>
   <si>
-    <t>Mortality rate, under-5 (per 1,000 live births)</t>
+    <t>Health expenditure per capita, PPP</t>
   </si>
   <si>
     <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
   </si>
   <si>
-    <t>Health expenditure per capita, PPP</t>
-  </si>
-  <si>
     <t>GDP per person employed (constant 2011 PPP $)</t>
   </si>
   <si>
     <t>Mortality rate, neonatal (per 1,000 live births)</t>
   </si>
   <si>
+    <t>Mortality rate, infant (per 1,000 live births)</t>
+  </si>
+  <si>
     <t>GDP per capita (Current US$)</t>
   </si>
   <si>
-    <t>Mortality rate, infant (per 1,000 live births)</t>
-  </si>
-  <si>
     <t>Health expenditure per capita (current US$)</t>
   </si>
   <si>
@@ -58,12 +58,12 @@
     <t>Number of infant deaths</t>
   </si>
   <si>
+    <t>Rural population (% of total population)</t>
+  </si>
+  <si>
     <t>Urban population (% of total)</t>
   </si>
   <si>
-    <t>Rural population (% of total population)</t>
-  </si>
-  <si>
     <t>Mortality rate, adult, female (per 1,000 female adults)</t>
   </si>
   <si>
@@ -79,15 +79,15 @@
     <t>Male population 25-29</t>
   </si>
   <si>
+    <t>Health expenditure, public (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Female population 20-24</t>
+  </si>
+  <si>
     <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
   </si>
   <si>
-    <t>Health expenditure, public (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Female population 20-24</t>
-  </si>
-  <si>
     <t>Health expenditure, private (% of total health expenditure)</t>
   </si>
   <si>
@@ -145,15 +145,15 @@
     <t>Net official development assistance received (current US$)</t>
   </si>
   <si>
+    <t>Rural population growth (annual %)</t>
+  </si>
+  <si>
     <t>Female population 35-39</t>
   </si>
   <si>
     <t>Age population, age 20, female, interpolated</t>
   </si>
   <si>
-    <t>Rural population growth (annual %)</t>
-  </si>
-  <si>
     <t>Age population, age 23, male, interpolated</t>
   </si>
   <si>
@@ -220,15 +220,15 @@
     <t>Labor force, total</t>
   </si>
   <si>
+    <t>Population, female</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of GDP)</t>
+  </si>
+  <si>
     <t>Male population 40-44</t>
   </si>
   <si>
-    <t>Health expenditure, private (% of GDP)</t>
-  </si>
-  <si>
-    <t>Population, female</t>
-  </si>
-  <si>
     <t>Male population 70-74</t>
   </si>
   <si>
@@ -247,6 +247,9 @@
     <t>Male population 55-59</t>
   </si>
   <si>
+    <t>Male population 15-19</t>
+  </si>
+  <si>
     <t>Population ages 00-14, total</t>
   </si>
   <si>
@@ -259,21 +262,18 @@
     <t>Population ages 0-14, male</t>
   </si>
   <si>
-    <t>Male population 15-19</t>
-  </si>
-  <si>
     <t>Age population, age 07, male, interpolated</t>
   </si>
   <si>
+    <t>Age population, age 09, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 06, female, interpolated</t>
+  </si>
+  <si>
     <t>Male population 10-14</t>
   </si>
   <si>
-    <t>Age population, age 09, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 06, female, interpolated</t>
-  </si>
-  <si>
     <t>Age population, age 09, male, interpolated</t>
   </si>
   <si>
@@ -334,6 +334,9 @@
     <t>Country_code</t>
   </si>
   <si>
+    <t>Incidence of tuberculosis (per 100,000 people)</t>
+  </si>
+  <si>
     <t>Age population, age 11, male, interpolated</t>
   </si>
   <si>
@@ -343,9 +346,6 @@
     <t>Age population, age 04, female, interpolated</t>
   </si>
   <si>
-    <t>Incidence of tuberculosis (per 100,000 people)</t>
-  </si>
-  <si>
     <t>Forest area (sq. km)</t>
   </si>
   <si>
@@ -418,24 +418,24 @@
     <t>Population ages 65 and above, female</t>
   </si>
   <si>
+    <t>Mobile cellular subscriptions (per 100 people)</t>
+  </si>
+  <si>
     <t>Female population 70-74</t>
   </si>
   <si>
-    <t>Mobile cellular subscriptions (per 100 people)</t>
-  </si>
-  <si>
     <t>CO2 emissions (kt)</t>
   </si>
   <si>
     <t>Health expenditure, total (current US$)</t>
   </si>
   <si>
+    <t>People using safely managed sanitation services (% of population)</t>
+  </si>
+  <si>
     <t>Rural population</t>
   </si>
   <si>
-    <t>People using safely managed sanitation services (% of population)</t>
-  </si>
-  <si>
     <t>Goods (excluding arms) admitted free of tariffs from developing countries (% total merchandise imports excluding arms)</t>
   </si>
   <si>
@@ -448,27 +448,27 @@
     <t>Average tariffs imposed by developed countries on agricultural products from developing countries (%)</t>
   </si>
   <si>
+    <t>Health expenditure, total (% of GDP)</t>
+  </si>
+  <si>
     <t>Average tariffs imposed by developed countries on clothing products from developing countries (%)</t>
   </si>
   <si>
     <t>Goods (excluding arms) admitted free of tariffs from least developed countries (% total merchandise imports excluding arms)</t>
   </si>
   <si>
-    <t>Health expenditure, total (% of GDP)</t>
+    <t>Average tariffs imposed by developed countries on textile products from least developed countries (%)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on agricultural products from least developed countries (%)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on clothing products from least developed countries (%)</t>
   </si>
   <si>
     <t>Average tariffs imposed by developed countries on textile products from developing countries (%)</t>
   </si>
   <si>
-    <t>Average tariffs imposed by developed countries on clothing products from least developed countries (%)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on textile products from least developed countries (%)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on agricultural products from least developed countries (%)</t>
-  </si>
-  <si>
     <t>Prevalence of anemia among children (% of children under 5)</t>
   </si>
   <si>
@@ -478,24 +478,24 @@
     <t>Internet users (per 100 people)</t>
   </si>
   <si>
+    <t>Trade (% of GDP)</t>
+  </si>
+  <si>
     <t>Health expenditure, public (% of GDP)</t>
   </si>
   <si>
-    <t>Trade (% of GDP)</t>
-  </si>
-  <si>
     <t>Net ODA provided, total (constant 2015 US$)</t>
   </si>
   <si>
     <t>Forest area (% of land area)</t>
   </si>
   <si>
+    <t>Immunization, BCG (% of one-year-old children)</t>
+  </si>
+  <si>
     <t>Health expenditure, public (% of government expenditure)</t>
   </si>
   <si>
-    <t>Immunization, BCG (% of one-year-old children)</t>
-  </si>
-  <si>
     <t>Net ODA provided, total (current US$)</t>
   </si>
   <si>
@@ -508,90 +508,90 @@
     <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
   </si>
   <si>
+    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
+  </si>
+  <si>
     <t>Employment in agriculture, female (% of female employment)</t>
   </si>
   <si>
-    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
   </si>
   <si>
     <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
   </si>
   <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
     <t>Employment in services, female (% of female employment)</t>
   </si>
   <si>
+    <t>Adults (ages 15+) newly infected with HIV</t>
+  </si>
+  <si>
     <t>People using safely managed drinking water services (% of population)</t>
   </si>
   <si>
-    <t>Adults (ages 15+) newly infected with HIV</t>
-  </si>
-  <si>
     <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
   </si>
   <si>
     <t>Educational attainment, at least completed primary, population 25+ years, male (%) (cumulative)</t>
   </si>
   <si>
+    <t>Educational attainment, at least completed primary, population 25+ years, female (%) (cumulative)</t>
+  </si>
+  <si>
     <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
   </si>
   <si>
-    <t>Educational attainment, at least completed primary, population 25+ years, female (%) (cumulative)</t>
-  </si>
-  <si>
     <t>Total debt service (% of exports of goods, services and primary income)</t>
   </si>
   <si>
+    <t>Unemployment with basic education, male (% of male labor force with basic education)</t>
+  </si>
+  <si>
+    <t>Fixed telephone subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Employers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
+  </si>
+  <si>
+    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
+  </si>
+  <si>
+    <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
+  </si>
+  <si>
+    <t>Employers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
+  </si>
+  <si>
+    <t>Tuberculosis treatment success rate (% of new cases)</t>
+  </si>
+  <si>
+    <t>Employment in services, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) living with HIV</t>
+  </si>
+  <si>
+    <t>Labor force with advanced education, male (% of male working-age population with advanced education)</t>
+  </si>
+  <si>
+    <t>External resources for health (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>Labor force with intermediate education, male (% of male working-age population with intermediate education)</t>
+  </si>
+  <si>
     <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
   </si>
   <si>
-    <t>Fixed telephone subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t>Unemployment with basic education, male (% of male labor force with basic education)</t>
-  </si>
-  <si>
-    <t>Employers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
-  </si>
-  <si>
-    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
-  </si>
-  <si>
-    <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
-  </si>
-  <si>
-    <t>Employers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) living with HIV</t>
-  </si>
-  <si>
-    <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
-  </si>
-  <si>
-    <t>Tuberculosis treatment success rate (% of new cases)</t>
-  </si>
-  <si>
-    <t>Employment in services, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Labor force with advanced education, male (% of male working-age population with advanced education)</t>
-  </si>
-  <si>
-    <t>External resources for health (% of total expenditure on health)</t>
-  </si>
-  <si>
-    <t>Labor force with intermediate education, male (% of male working-age population with intermediate education)</t>
-  </si>
-  <si>
     <t>Labor force with basic education, female (% of female working-age population with basic education)</t>
   </si>
   <si>
@@ -613,42 +613,45 @@
     <t>Labor force with intermediate education, female (% of female working-age population with intermediate education)</t>
   </si>
   <si>
+    <t>Total bilateral ODA commitments (current US$)</t>
+  </si>
+  <si>
     <t>Net ODA provided to the least developed countries (% of donor GNI)</t>
   </si>
   <si>
     <t>School enrollment, tertiary, male (% gross)</t>
   </si>
   <si>
+    <t>Educational attainment, completed post-secondary, population 25+ years, male (%)</t>
+  </si>
+  <si>
     <t>Survival to age 65, male (% of cohort)</t>
   </si>
   <si>
     <t>Prevalence of overweight, male (% of male adults)</t>
   </si>
   <si>
-    <t>Educational attainment, completed post-secondary, population 25+ years, male (%)</t>
+    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed post-secondary, population 25+ years, female (%)</t>
   </si>
   <si>
     <t>Children out of school, primary, male</t>
   </si>
   <si>
-    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed post-secondary, population 25+ years, female (%)</t>
-  </si>
-  <si>
     <t>Gross graduation ratio, tertiary, female (%)</t>
   </si>
   <si>
+    <t>PPP conversion factor, private consumption (LCU per international $)</t>
+  </si>
+  <si>
+    <t>Net ODA provided to the least developed countries (current US$)</t>
+  </si>
+  <si>
     <t>Wage and salaried workers, female (% of female employment)</t>
   </si>
   <si>
-    <t>PPP conversion factor, private consumption (LCU per international $)</t>
-  </si>
-  <si>
-    <t>Net ODA provided to the least developed countries (current US$)</t>
-  </si>
-  <si>
     <t>School enrollment, secondary (% gross)</t>
   </si>
   <si>
@@ -658,21 +661,21 @@
     <t>Educational attainment, at least completed post-secondary, population 25+, female (%) (cumulative)</t>
   </si>
   <si>
+    <t>Educational attainment, at least completed post-secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Employment in industry, male (% of male employment)</t>
+  </si>
+  <si>
     <t>Children out of school, primary, female</t>
   </si>
   <si>
-    <t>Educational attainment, at least completed post-secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Employment in industry, male (% of male employment)</t>
+    <t>Bilateral, sector-allocable ODA to basic social services (% of bilateral ODA commitments)</t>
   </si>
   <si>
     <t>Children orphaned by HIV/AIDS</t>
   </si>
   <si>
-    <t>Bilateral, sector-allocable ODA to basic social services (% of bilateral ODA commitments)</t>
-  </si>
-  <si>
     <t>Self-employed, male (% of male employment)</t>
   </si>
   <si>
@@ -688,42 +691,42 @@
     <t>Gross graduation ratio, tertiary, male (%)</t>
   </si>
   <si>
+    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
     <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
   </si>
   <si>
-    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
+    <t>Employment in industry, female (% of female employment)</t>
   </si>
   <si>
     <t>School enrollment, tertiary, female (% gross)</t>
   </si>
   <si>
-    <t>Employment in industry, female (% of female employment)</t>
-  </si>
-  <si>
     <t>Unemployment, male (% of male labor force) (national estimate)</t>
   </si>
   <si>
-    <t>Total bilateral ODA commitments (current US$)</t>
+    <t>Unemployment, male (% of male labor force)</t>
   </si>
   <si>
     <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Unemployment, male (% of male labor force)</t>
+    <t>Bilateral ODA commitments that is untied (current US$)</t>
+  </si>
+  <si>
+    <t>Bilateral, sector-allocable ODA to basic social services (current US$)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, total (% of total labor force)</t>
   </si>
   <si>
     <t>Unemployment, female (% of female labor force) (national estimate)</t>
   </si>
   <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, total (% of total labor force)</t>
-  </si>
-  <si>
-    <t>Bilateral, sector-allocable ODA to basic social services (current US$)</t>
-  </si>
-  <si>
     <t>Female share of employment in senior and middle management (%)</t>
   </si>
   <si>
@@ -736,42 +739,39 @@
     <t>Educational attainment, completed primary, population 25+ years, female (%)</t>
   </si>
   <si>
-    <t>Bilateral ODA commitments that is untied (current US$)</t>
-  </si>
-  <si>
     <t>Educational attainment, at least completed lower secondary, population 25+, male (%) (cumulative)</t>
   </si>
   <si>
+    <t>Proportion of seats held by women in national parliaments (%)</t>
+  </si>
+  <si>
     <t>Time-related underemployment, male (% of employment)</t>
   </si>
   <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed primary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Time-related underemployment, female (% of employment)</t>
+  </si>
+  <si>
     <t>Improved sanitation facilities, rural (% of rural population with access)</t>
   </si>
   <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
-  </si>
-  <si>
-    <t>Time-related underemployment, female (% of employment)</t>
-  </si>
-  <si>
     <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
   </si>
   <si>
-    <t>Educational attainment, completed primary, population 25+ years, male (%)</t>
-  </si>
-  <si>
     <t>Employment to population ratio, ages 15-24, male (%) (national estimate)</t>
   </si>
   <si>
-    <t>Proportion of seats held by women in national parliaments (%)</t>
+    <t>Unemployment, female (% of female labor force)</t>
   </si>
   <si>
     <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Unemployment, female (% of female labor force)</t>
-  </si>
-  <si>
     <t>Improved sanitation facilities (% of population with access)</t>
   </si>
   <si>
@@ -787,69 +787,69 @@
     <t>Educational attainment, at least completed lower secondary, population 25+, female (%) (cumulative)</t>
   </si>
   <si>
+    <t>Survival to age 65, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed upper secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
     <t>Number of maternal deaths</t>
   </si>
   <si>
-    <t>Survival to age 65, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed upper secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
     <t>GDP growth (annual %)</t>
   </si>
   <si>
+    <t>Educational attainment, no schooling, population 25+ years, male (%)</t>
+  </si>
+  <si>
     <t>CO2 emissions (metric tons per capita)</t>
   </si>
   <si>
+    <t>Educational attainment, completed upper secondary, population 25+ years, female (%)</t>
+  </si>
+  <si>
     <t>Educational attainment, completed upper secondary, population 25+ years, male (%)</t>
   </si>
   <si>
-    <t>Educational attainment, no schooling, population 25+ years, male (%)</t>
-  </si>
-  <si>
     <t>Prevalence of obesity, female (% of female population ages 18+)</t>
   </si>
   <si>
     <t>Maternal mortality ratio (national estimate, per 100,000 live births)</t>
   </si>
   <si>
-    <t>Educational attainment, completed upper secondary, population 25+ years, female (%)</t>
+    <t>Educational attainment, some primary, population 25+ years, female (%)</t>
   </si>
   <si>
     <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
   </si>
   <si>
-    <t>Educational attainment, some primary, population 25+ years, female (%)</t>
-  </si>
-  <si>
     <t>Wage and salaried workers, male (% of male employment)</t>
   </si>
   <si>
+    <t>Educational attainment, some primary, population 25+ years, male (%)</t>
+  </si>
+  <si>
     <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
   </si>
   <si>
     <t>Employment to population ratio, ages 15-24, female (%) (national estimate)</t>
   </si>
   <si>
-    <t>Educational attainment, some primary, population 25+ years, male (%)</t>
-  </si>
-  <si>
     <t>Educational attainment, some primary, population 25+ years, total (%)</t>
   </si>
   <si>
+    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
     <t>School enrollment, secondary (% net)</t>
   </si>
   <si>
+    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
     <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
     <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
   </si>
   <si>
@@ -865,54 +865,54 @@
     <t>PPP conversion factor, GDP (LCU per international $)</t>
   </si>
   <si>
+    <t>Tuberculosis case detection rate (all forms)</t>
+  </si>
+  <si>
+    <t>Children (0-14) living with HIV</t>
+  </si>
+  <si>
+    <t>Bilateral ODA commitments that is untied (% of bilateral ODA commitments)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed upper secondary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed lower secondary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Government expenditure per student, primary (% of GDP per capita)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kg per PPP $ of GDP)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, male (% of total)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Tuberculosis case detection rate (%, all forms)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, male (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 0-14 (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14 (% of total)</t>
+  </si>
+  <si>
     <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
   </si>
   <si>
-    <t>Children (0-14) living with HIV</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Government expenditure per student, primary (% of GDP per capita)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (kg per PPP $ of GDP)</t>
-  </si>
-  <si>
-    <t>Tuberculosis case detection rate (all forms)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, male (% of total)</t>
-  </si>
-  <si>
-    <t>Bilateral ODA commitments that is untied (% of bilateral ODA commitments)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed lower secondary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed upper secondary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Tuberculosis case detection rate (%, all forms)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, male (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 0-14 (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14 (% of total)</t>
-  </si>
-  <si>
     <t>Prevalence of anemia among pregnant women (%)</t>
   </si>
   <si>
@@ -928,27 +928,27 @@
     <t>Tertiary education, academic staff (% female)</t>
   </si>
   <si>
+    <t>Secondary education, pupils (% female)</t>
+  </si>
+  <si>
     <t>Access to anti-retroviral drugs, female (%)</t>
   </si>
   <si>
-    <t>Secondary education, pupils (% female)</t>
-  </si>
-  <si>
     <t>Population ages 65 and above, female (% of total)</t>
   </si>
   <si>
     <t>Population ages 80 and older, female (% of female population)</t>
   </si>
   <si>
+    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
+  </si>
+  <si>
     <t>Tuberculosis death rate (per 100,000 people)</t>
   </si>
   <si>
     <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
   </si>
   <si>
-    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
-  </si>
-  <si>
     <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
   </si>
   <si>
@@ -958,21 +958,21 @@
     <t>People using basic drinking water services (% of population)</t>
   </si>
   <si>
+    <t>Educational attainment, completed lower secondary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Persistence to grade 5, female (% of cohort)</t>
+  </si>
+  <si>
     <t>Age dependency ratio, young</t>
   </si>
   <si>
-    <t>Persistence to grade 5, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed lower secondary, population 25+ years, female (%)</t>
+    <t>Persistence to grade 5, male (% of cohort)</t>
   </si>
   <si>
     <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Persistence to grade 5, male (% of cohort)</t>
-  </si>
-  <si>
     <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
   </si>
   <si>
@@ -985,15 +985,15 @@
     <t>People using basic sanitation services (% of population)</t>
   </si>
   <si>
+    <t>Antiretroviral therapy coverage for PMTCT (% of pregnant women living with HIV)</t>
+  </si>
+  <si>
     <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
   </si>
   <si>
     <t>AIDS estimated deaths (UNAIDS estimates)</t>
   </si>
   <si>
-    <t>Antiretroviral therapy coverage for PMTCT (% of pregnant women living with HIV)</t>
-  </si>
-  <si>
     <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
   </si>
   <si>
@@ -1117,6 +1117,9 @@
     <t>Population ages 40-44, male (% of male population)</t>
   </si>
   <si>
+    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
     <t>Labor force participation rate for ages 15-24, female (%) (national estimate)</t>
   </si>
   <si>
@@ -1144,9 +1147,6 @@
     <t>Population ages 35-39, male (% of male population)</t>
   </si>
   <si>
-    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
     <t>Expected years of schooling, male</t>
   </si>
   <si>
@@ -1156,39 +1156,39 @@
     <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
   </si>
   <si>
+    <t>Population, male (% of total)</t>
+  </si>
+  <si>
     <t>Population, female (% of total)</t>
   </si>
   <si>
-    <t>Population, male (% of total)</t>
+    <t>Access to anti-retroviral drugs, male (%)</t>
   </si>
   <si>
     <t>Expected years of schooling, female</t>
   </si>
   <si>
-    <t>Access to anti-retroviral drugs, male (%)</t>
-  </si>
-  <si>
     <t>Population ages 35-39, female (% of female population)</t>
   </si>
   <si>
+    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
     <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
   </si>
   <si>
-    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
     <t>People using basic sanitation services, rural (% of rural population)</t>
   </si>
   <si>
     <t>Proportion of women in ministerial level positions (%)</t>
   </si>
   <si>
+    <t>Secondary education, teachers (% female)</t>
+  </si>
+  <si>
     <t>Contributing family workers, female (% of female employment)</t>
   </si>
   <si>
-    <t>Secondary education, teachers (% female)</t>
-  </si>
-  <si>
     <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
   </si>
   <si>
@@ -1198,12 +1198,12 @@
     <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, female (%)</t>
   </si>
   <si>
+    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, male (%)</t>
+  </si>
+  <si>
     <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
   </si>
   <si>
-    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, male (%)</t>
-  </si>
-  <si>
     <t>Contributing family workers, total (% of total employment)</t>
   </si>
   <si>
@@ -1243,24 +1243,24 @@
     <t>School enrollment, secondary, female (% net)</t>
   </si>
   <si>
+    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, primary, female (%)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, primary, male (%)</t>
+  </si>
+  <si>
+    <t>Primary education, teachers (% female)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, urban  (% of urban population)</t>
+  </si>
+  <si>
     <t>Immunization, Pol3 (% of one-year-old children)</t>
   </si>
   <si>
-    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, primary, male (%)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, primary, female (%)</t>
-  </si>
-  <si>
-    <t>Primary education, teachers (% female)</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services, urban  (% of urban population)</t>
-  </si>
-  <si>
     <t>People practicing open defecation, rural (% of rural population)</t>
   </si>
   <si>
@@ -1291,84 +1291,84 @@
     <t>Newborns protected against tetanus (%)</t>
   </si>
   <si>
+    <t>Nurses and midwives (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Informal employment, male (% of total non-agricultural employment)</t>
+  </si>
+  <si>
+    <t>Informal employment, female (% of total non-agricultural employment)</t>
+  </si>
+  <si>
+    <t>Sex ratio at birth (male births per female births)</t>
+  </si>
+  <si>
+    <t>Urban poverty gap at national poverty lines (%)</t>
+  </si>
+  <si>
+    <t>Urban poverty headcount ratio at national poverty lines (% of urban population)</t>
+  </si>
+  <si>
+    <t>Rural poverty headcount ratio at national poverty lines (% of rural population)</t>
+  </si>
+  <si>
+    <t>Poverty gap at national poverty lines (%)</t>
+  </si>
+  <si>
+    <t>Rural poverty gap at national poverty lines (%)</t>
+  </si>
+  <si>
     <t>Immunization, DPT (% of children ages 12-23 months)</t>
   </si>
   <si>
-    <t>Nurses and midwives (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Informal employment, female (% of total non-agricultural employment)</t>
-  </si>
-  <si>
-    <t>Informal employment, male (% of total non-agricultural employment)</t>
-  </si>
-  <si>
-    <t>Sex ratio at birth (male births per female births)</t>
-  </si>
-  <si>
-    <t>Urban poverty gap at national poverty lines (%)</t>
-  </si>
-  <si>
-    <t>Rural poverty headcount ratio at national poverty lines (% of rural population)</t>
-  </si>
-  <si>
-    <t>Rural poverty gap at national poverty lines (%)</t>
-  </si>
-  <si>
-    <t>Urban poverty headcount ratio at national poverty lines (% of urban population)</t>
-  </si>
-  <si>
-    <t>Poverty gap at national poverty lines (%)</t>
+    <t>Contributing family workers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Literacy rate, youth male (% of males ages 15-24)</t>
+  </si>
+  <si>
+    <t>Literacy rate, adult male (% of males ages 15 and above)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed short-cycle tertiary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Literacy rate, youth (ages 15-24), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Literacy rate, adult total (% of people ages 15 and above)</t>
+  </si>
+  <si>
+    <t>Literacy rate, youth total (% of people ages 15-24)</t>
+  </si>
+  <si>
+    <t>Literacy rate, adult female (% of females ages 15 and above)</t>
+  </si>
+  <si>
+    <t>Literacy rate, youth female (% of females ages 15-24)</t>
+  </si>
+  <si>
+    <t>Ratio of young literate females to males (% ages 15-24)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed short-cycle tertiary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
   </si>
   <si>
     <t>Time required to start a business, male (days)</t>
   </si>
   <si>
-    <t>Contributing family workers, male (% of male employment)</t>
+    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>People using safely managed drinking water services, urban (% of urban population)</t>
   </si>
   <si>
     <t>Time required to start a business, female (days)</t>
   </si>
   <si>
-    <t>Literacy rate, youth male (% of males ages 15-24)</t>
-  </si>
-  <si>
-    <t>Literacy rate, youth total (% of people ages 15-24)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed short-cycle tertiary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Literacy rate, youth (ages 15-24), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Literacy rate, adult total (% of people ages 15 and above)</t>
-  </si>
-  <si>
-    <t>Literacy rate, adult male (% of males ages 15 and above)</t>
-  </si>
-  <si>
-    <t>Literacy rate, adult female (% of females ages 15 and above)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed short-cycle tertiary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Ratio of young literate females to males (% ages 15-24)</t>
-  </si>
-  <si>
-    <t>Literacy rate, youth female (% of females ages 15-24)</t>
-  </si>
-  <si>
-    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>People using safely managed drinking water services, urban (% of urban population)</t>
-  </si>
-  <si>
     <t>Primary completion rate, female (% of relevant age group)</t>
   </si>
   <si>
@@ -1393,54 +1393,54 @@
     <t>Vulnerable employment, male (% of male employment)</t>
   </si>
   <si>
+    <t>Government expenditure on education, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Public spending on education, total (% of GDP)</t>
+  </si>
+  <si>
     <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
   </si>
   <si>
     <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
   </si>
   <si>
-    <t>Public spending on education, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Government expenditure on education, total (% of GDP)</t>
+    <t>Educational attainment, completed Master's or equivalent, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed Master's or equivalent, population 25+ years, male (%)</t>
   </si>
   <si>
     <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
   </si>
   <si>
-    <t>Educational attainment, completed Master's or equivalent, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed Master's or equivalent, population 25+ years, male (%)</t>
-  </si>
-  <si>
     <t>Hospital beds (per 1,000 people)</t>
   </si>
   <si>
+    <t>Prevalence of HIV, female (% ages 15-24)</t>
+  </si>
+  <si>
     <t>Prevalence of HIV, male (% ages 15-24)</t>
   </si>
   <si>
     <t>Prevalence of HIV, total (% of population ages 15-49)</t>
   </si>
   <si>
-    <t>Prevalence of HIV, female (% ages 15-24)</t>
+    <t>Age at first marriage, male</t>
   </si>
   <si>
     <t>Age at first marriage, female</t>
   </si>
   <si>
-    <t>Age at first marriage, male</t>
-  </si>
-  <si>
     <t>Lower secondary completion rate, male (% of relevant age group)</t>
   </si>
   <si>
+    <t>Poverty headcount ratio at national poverty line (% of population)</t>
+  </si>
+  <si>
     <t>Poverty headcount ratio at national poverty lines (% of population)</t>
   </si>
   <si>
-    <t>Poverty headcount ratio at national poverty line (% of population)</t>
-  </si>
-  <si>
     <t>Lower secondary completion rate, female (% of relevant age group)</t>
   </si>
   <si>
@@ -1450,13 +1450,10 @@
     <t>People practicing open defecation (% of population)</t>
   </si>
   <si>
-    <t>Reion_sub_code</t>
+    <t>GINI index (World Bank estimate)</t>
   </si>
   <si>
     <t>Region_code</t>
-  </si>
-  <si>
-    <t>GINI index (World Bank estimate)</t>
   </si>
   <si>
     <t>Progression to secondary school, male (%)</t>
@@ -1817,7 +1814,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B483"/>
+  <dimension ref="A1:B482"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1833,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.251000858241405</v>
+        <v>1.25091668315723</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1841,7 +1838,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.091030214766892</v>
+        <v>1.089706357464773</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1849,7 +1846,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.077033941248936</v>
+        <v>1.077299417000153</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1857,7 +1854,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.075623876532674</v>
+        <v>1.069446539570105</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1865,7 +1862,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.047479316195794</v>
+        <v>1.048395067111545</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1889,7 +1886,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9846183094305472</v>
+        <v>0.9885273755682058</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1897,7 +1894,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9773443802254627</v>
+        <v>0.9823659226082317</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1905,7 +1902,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9772893176870188</v>
+        <v>0.9781835410646234</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1913,7 +1910,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.958042914691918</v>
+        <v>0.9590548194538222</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1921,7 +1918,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.9468211410984901</v>
+        <v>0.9483005644529134</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1929,7 +1926,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9014954520590375</v>
+        <v>0.9007978653320388</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1937,7 +1934,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.8894400267205715</v>
+        <v>0.8910842606228702</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1945,7 +1942,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8849219268163253</v>
+        <v>0.8853798022742008</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1953,7 +1950,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8849219268163253</v>
+        <v>0.8853798022742008</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1969,7 +1966,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.788536467908203</v>
+        <v>0.7885012467191355</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1977,7 +1974,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7827173317921767</v>
+        <v>0.7781744756726807</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2001,7 +1998,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7273043989249999</v>
+        <v>0.7248557565131533</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2009,7 +2006,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7265727894801861</v>
+        <v>0.7242392514439602</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2017,7 +2014,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7242392514439602</v>
+        <v>0.7227549740045003</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2025,7 +2022,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.7120937519411368</v>
+        <v>0.7105598691572541</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2041,7 +2038,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.7008368557126397</v>
+        <v>0.7013367498296414</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2065,7 +2062,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.6900569829816185</v>
+        <v>0.690242787515249</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2121,7 +2118,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.674360236804689</v>
+        <v>0.6737190924222276</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -2129,7 +2126,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.6730189402527764</v>
+        <v>0.6728881186933835</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2145,7 +2142,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.6713121969752409</v>
+        <v>0.6707398526528965</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2169,7 +2166,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.6556092786356302</v>
+        <v>0.6568951455464966</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -2177,7 +2174,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.6548587008964522</v>
+        <v>0.6554699836522366</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -2185,7 +2182,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.6538038719604948</v>
+        <v>0.6548587008964522</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -2193,7 +2190,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.6528944342016865</v>
+        <v>0.6538038719604948</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -2265,7 +2262,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.626480618509079</v>
+        <v>0.6245196484446605</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2297,7 +2294,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.6153763914179629</v>
+        <v>0.6142708623687252</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -2345,7 +2342,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.6006846857831345</v>
+        <v>0.600405978982689</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -2377,7 +2374,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.5965469943317667</v>
+        <v>0.5969951457320883</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -2385,7 +2382,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.5964108200686864</v>
+        <v>0.5969670626326016</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -2393,7 +2390,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.5951736058415418</v>
+        <v>0.5965469943317667</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -2449,7 +2446,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.5901134429641526</v>
+        <v>0.5903572657362415</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -2457,7 +2454,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.5895454282152195</v>
+        <v>0.5901134429641526</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -2465,7 +2462,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.5895291532690572</v>
+        <v>0.5895454282152195</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2473,7 +2470,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.5894752851719192</v>
+        <v>0.5895291532690572</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -2481,7 +2478,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.58907096894526</v>
+        <v>0.5894752851719192</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -2497,7 +2494,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.5835313546242582</v>
+        <v>0.5833204670404899</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2505,7 +2502,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.5833204670404899</v>
+        <v>0.5831090292507857</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -2513,7 +2510,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.5831090292507857</v>
+        <v>0.5824035953790148</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -2545,7 +2542,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.5785457328218881</v>
+        <v>0.5793263097946135</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -2625,7 +2622,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.5709566972161926</v>
+        <v>0.5707101488927218</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2665,7 +2662,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.5581559272454724</v>
+        <v>0.5584295006322531</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2673,7 +2670,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.5559060833148499</v>
+        <v>0.5536906493209472</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2681,7 +2678,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.5509570254829574</v>
+        <v>0.5512186157031895</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2689,7 +2686,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.5501054532851319</v>
+        <v>0.5509570254829574</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2697,7 +2694,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.5492008780430315</v>
+        <v>0.5505633287430074</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2705,7 +2702,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.5479264035922584</v>
+        <v>0.5492008780430315</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2713,7 +2710,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.547360902195043</v>
+        <v>0.5489891983735875</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2761,7 +2758,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.5395617802368151</v>
+        <v>0.5392704049454395</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2769,7 +2766,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.5317564496280851</v>
+        <v>0.5321897333499401</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2809,7 +2806,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.5265818198984928</v>
+        <v>0.5270749165454358</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2889,7 +2886,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.498130106868623</v>
+        <v>0.498587982326498</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2905,7 +2902,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.4813492946806064</v>
+        <v>0.4811853295625403</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2913,7 +2910,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.4790485774257887</v>
+        <v>0.4807255937778887</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2921,7 +2918,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.4776659994078036</v>
+        <v>0.4770143703351222</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2929,7 +2926,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.4712200676780096</v>
+        <v>0.4713975824709089</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2937,7 +2934,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.4691027083461505</v>
+        <v>0.4700498312083525</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2945,7 +2942,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.4681466580963478</v>
+        <v>0.4695605838040255</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2985,7 +2982,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.4395658253275372</v>
+        <v>0.4398675329132793</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2993,7 +2990,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.4385780556147172</v>
+        <v>0.4395658253275372</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -3001,7 +2998,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.438181024976771</v>
+        <v>0.4385780556147172</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -3041,7 +3038,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.4269071247566412</v>
+        <v>0.4266992639132201</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -3065,7 +3062,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.41831974760311</v>
+        <v>0.4175451003812591</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -3073,7 +3070,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.4175451003812591</v>
+        <v>0.417518465551828</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -3081,7 +3078,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.4164105869726185</v>
+        <v>0.4161541767162082</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -3097,7 +3094,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.4035897182993309</v>
+        <v>0.4001576422603577</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -3105,7 +3102,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.399699766802482</v>
+        <v>0.3953028465369601</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -3113,7 +3110,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.3937937864193437</v>
+        <v>0.3910652602579054</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -3121,7 +3118,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.3891500206996383</v>
+        <v>0.3890506368793245</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -3137,7 +3134,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.3765945071114887</v>
+        <v>0.3767428185148658</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -3145,7 +3142,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.373845949759406</v>
+        <v>0.3732925843105424</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -3153,7 +3150,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.3731489447098895</v>
+        <v>0.3717259621444537</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -3161,7 +3158,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.3704075712086954</v>
+        <v>0.3653199893730834</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -3169,7 +3166,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.3653199893730834</v>
+        <v>0.3645134790193476</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -3177,7 +3174,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.3633215261937004</v>
+        <v>0.3639940167855455</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -3185,7 +3182,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.3590347595368115</v>
+        <v>0.3599555724791983</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -3193,7 +3190,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.3579907590160458</v>
+        <v>0.3586006718694366</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -3209,7 +3206,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.3349804745979212</v>
+        <v>0.3365830387004853</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -3217,7 +3214,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.3300150684835228</v>
+        <v>0.3301818993419889</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -3225,7 +3222,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.3285793352394248</v>
+        <v>0.3300150684835228</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -3241,7 +3238,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.3273420090197701</v>
+        <v>0.3265745380721257</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -3249,7 +3246,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.3267663795145761</v>
+        <v>0.3258506285988247</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -3257,7 +3254,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.3265745380721257</v>
+        <v>0.3250925433570557</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -3265,7 +3262,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.3250925433570557</v>
+        <v>0.324437222478857</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -3273,7 +3270,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.324437222478857</v>
+        <v>0.3240656092602108</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -3281,7 +3278,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.3240656092602108</v>
+        <v>0.3226057976261358</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -3289,7 +3286,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.3226057976261358</v>
+        <v>0.320717164928001</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -3297,7 +3294,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.320717164928001</v>
+        <v>0.3136179804602992</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -3305,7 +3302,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.3159382187558646</v>
+        <v>0.313001538317059</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -3313,7 +3310,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.3136179804602992</v>
+        <v>0.3106997720071136</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -3321,7 +3318,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.3133313758596337</v>
+        <v>0.3100487555788543</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -3329,7 +3326,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.3105753486794638</v>
+        <v>0.3093998713987385</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -3337,7 +3334,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.3100487555788543</v>
+        <v>0.3071647295430848</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -3345,7 +3342,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.3071647295430848</v>
+        <v>0.3040675830052313</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -3353,7 +3350,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.3040675830052313</v>
+        <v>0.300230886886391</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -3361,7 +3358,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.300230886886391</v>
+        <v>0.3001332644741814</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -3393,7 +3390,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.2905949303000384</v>
+        <v>0.2909666174364314</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -3409,7 +3406,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.2896237430604189</v>
+        <v>0.289200162099396</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -3425,7 +3422,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.2838188201891121</v>
+        <v>0.2821087576004562</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -3433,7 +3430,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.2820933249568034</v>
+        <v>0.2816820680523602</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -3441,7 +3438,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.2789405579043338</v>
+        <v>0.2815466440590573</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -3449,7 +3446,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.2787722585254619</v>
+        <v>0.2790264025890308</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -3457,7 +3454,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.2777443513069795</v>
+        <v>0.2789405579043338</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -3465,7 +3462,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.2750334161301273</v>
+        <v>0.2780946967867961</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -3481,7 +3478,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.2723730532552298</v>
+        <v>0.273655104537281</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -3489,7 +3486,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0.2715197908508769</v>
+        <v>0.2721963671392325</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -3497,7 +3494,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.2695168854620302</v>
+        <v>0.2716561792851371</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -3521,7 +3518,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0.2622288204417602</v>
+        <v>0.2673801333252783</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -3529,7 +3526,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.2604620864362843</v>
+        <v>0.2621444749626791</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -3537,7 +3534,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.2584710140087079</v>
+        <v>0.2607280916563157</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -3545,7 +3542,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.2564579014444717</v>
+        <v>0.2594712617480859</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -3553,7 +3550,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>0.2563283467699649</v>
+        <v>0.2576103980520161</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -3561,7 +3558,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.2544763957000657</v>
+        <v>0.2552776777513477</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -3569,7 +3566,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.2544633224257462</v>
+        <v>0.2545538096013558</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -3585,7 +3582,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.2534370733279385</v>
+        <v>0.2537949381035161</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -3593,7 +3590,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.2533373383447113</v>
+        <v>0.253359841322996</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -3601,7 +3598,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.2501253507135779</v>
+        <v>0.2512005862079589</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -3609,7 +3606,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.2495966378863257</v>
+        <v>0.2502744264440491</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -3617,7 +3614,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.2451670787918838</v>
+        <v>0.2495203253100133</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -3625,7 +3622,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.24398793914186</v>
+        <v>0.2453956927426983</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -3633,7 +3630,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0.2437010388271954</v>
+        <v>0.2437914255437645</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -3641,7 +3638,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.2424609958614579</v>
+        <v>0.2436339638900282</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -3649,7 +3646,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.2423158118782311</v>
+        <v>0.2423774489590989</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -3657,7 +3654,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>0.2411698540490601</v>
+        <v>0.2422998195741324</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -3665,7 +3662,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>0.2403677249991827</v>
+        <v>0.2416480795272857</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -3689,7 +3686,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.2369664294927356</v>
+        <v>0.2395253043729726</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -3697,7 +3694,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.2368175745508241</v>
+        <v>0.237040650334158</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -3705,7 +3702,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>0.2365999680012221</v>
+        <v>0.2368175745508241</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -3713,7 +3710,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.2358183193086618</v>
+        <v>0.2365999680012221</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -3721,7 +3718,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.2340901440679988</v>
+        <v>0.2349775475844991</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -3729,7 +3726,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.2319059846250202</v>
+        <v>0.2343693787222334</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -3737,7 +3734,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>0.2318572623657569</v>
+        <v>0.232119659838695</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -3745,7 +3742,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>0.2300839952009968</v>
+        <v>0.2318572623657569</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -3753,7 +3750,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>0.2283396649208145</v>
+        <v>0.2315678508515184</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -3761,7 +3758,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0.2254919975905918</v>
+        <v>0.2261301440958776</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -3769,7 +3766,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>0.2246538260952002</v>
+        <v>0.2247456074767165</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -3777,7 +3774,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>0.2240744290748744</v>
+        <v>0.2245765940902578</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -3785,7 +3782,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>0.2233517567351355</v>
+        <v>0.2232651316485108</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -3793,7 +3790,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>0.2221020615653921</v>
+        <v>0.2230234222198548</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -3801,7 +3798,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>0.2218497857306152</v>
+        <v>0.222626498565561</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -3809,7 +3806,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>0.221332998243247</v>
+        <v>0.2225951817369227</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -3817,7 +3814,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>0.2199433498178529</v>
+        <v>0.2218497857306152</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -3825,7 +3822,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>0.219061831790901</v>
+        <v>0.2199433498178529</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -3849,7 +3846,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>0.2134859679962142</v>
+        <v>0.2145401412236705</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -3865,7 +3862,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>0.2100467542539959</v>
+        <v>0.2105094195066932</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -3881,7 +3878,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>0.2083332121921138</v>
+        <v>0.2093942201496737</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -3889,7 +3886,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>0.2079877196179585</v>
+        <v>0.2078208424036541</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -3897,7 +3894,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>0.2078208424036541</v>
+        <v>0.2076638013271976</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -3905,7 +3902,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>0.2071768974624353</v>
+        <v>0.207602158304047</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -3913,7 +3910,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>0.2068225398014931</v>
+        <v>0.2063369143158673</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -3921,7 +3918,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>0.2057977753228259</v>
+        <v>0.2060216725782889</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -3929,7 +3926,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>0.2048752240185157</v>
+        <v>0.2057977753228259</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -3937,7 +3934,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>0.2048167632603988</v>
+        <v>0.2050452880297373</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -3945,7 +3942,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>0.203868701359124</v>
+        <v>0.2037344440667606</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -3953,7 +3950,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>0.2034814567323693</v>
+        <v>0.2036526674031616</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -3961,7 +3958,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>0.203442723927173</v>
+        <v>0.2034814567323693</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -3969,7 +3966,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>0.2012776391762796</v>
+        <v>0.2015448470324706</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -3977,7 +3974,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>0.2003371175638715</v>
+        <v>0.2012776391762796</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -3985,7 +3982,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>0.1987793557518687</v>
+        <v>0.198829047662026</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -3993,7 +3990,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>0.1979547996807764</v>
+        <v>0.198121926925299</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -4001,7 +3998,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>0.1973164225508361</v>
+        <v>0.1979547996807764</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -4009,7 +4006,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>0.1970535508569227</v>
+        <v>0.1972207470820264</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -4017,7 +4014,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>0.1961653129427841</v>
+        <v>0.1970943356109367</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -4025,7 +4022,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>0.1953035535541603</v>
+        <v>0.1951546863517433</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -4033,7 +4030,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>0.1938462213885646</v>
+        <v>0.194986849600268</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -4041,7 +4038,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>0.1935611164302991</v>
+        <v>0.194477212683047</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -4049,7 +4046,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>0.1928635900569575</v>
+        <v>0.1938462213885646</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -4057,7 +4054,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>0.1907648943836668</v>
+        <v>0.193743515735036</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -4073,7 +4070,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>0.1897802486406961</v>
+        <v>0.1898988852258146</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -4097,7 +4094,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>0.1878791385534009</v>
+        <v>0.1876254127026529</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -4113,7 +4110,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>0.1853932433841663</v>
+        <v>0.1872361043926569</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -4121,7 +4118,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>0.184963084018088</v>
+        <v>0.1862028642450544</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -4129,7 +4126,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>0.1849110689067148</v>
+        <v>0.1853932433841663</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -4137,7 +4134,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>0.1848525364762112</v>
+        <v>0.1849984308979058</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -4145,7 +4142,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>0.184414328506741</v>
+        <v>0.184963084018088</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -4153,7 +4150,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>0.1842880473230071</v>
+        <v>0.1849110689067148</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -4161,7 +4158,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>0.184114303332213</v>
+        <v>0.1848525364762112</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -4169,7 +4166,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>0.1835498390032158</v>
+        <v>0.1842880473230071</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -4177,7 +4174,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>0.1832129187185569</v>
+        <v>0.1835498390032158</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -4185,7 +4182,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>0.183085547771574</v>
+        <v>0.1830070556685912</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -4193,7 +4190,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>0.1817763524817868</v>
+        <v>0.1814019791030324</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -4201,7 +4198,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>0.1814019791030324</v>
+        <v>0.1798519760306982</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -4217,7 +4214,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>0.1798519760306982</v>
+        <v>0.1794637649450932</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -4225,7 +4222,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>0.1774481341687868</v>
+        <v>0.1773984924524794</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -4257,7 +4254,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>0.170355259350178</v>
+        <v>0.1702840342789531</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -4265,7 +4262,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>0.1691926132318453</v>
+        <v>0.1689002327803062</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -4273,7 +4270,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>0.1689002327803062</v>
+        <v>0.1684718847727404</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -4297,7 +4294,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>0.1625306694262647</v>
+        <v>0.1624245793369825</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -4305,7 +4302,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>0.162518361176694</v>
+        <v>0.1624216485022207</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -4313,7 +4310,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>0.1624245793369825</v>
+        <v>0.1623808907804987</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -4321,7 +4318,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>0.1622535605431896</v>
+        <v>0.1623069793466094</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -4345,7 +4342,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>0.1589074262050629</v>
+        <v>0.1595205310164458</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -4353,7 +4350,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>0.1587915203445578</v>
+        <v>0.1593829428109799</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -4361,7 +4358,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>0.1584521549480697</v>
+        <v>0.1589074262050629</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -4369,7 +4366,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>0.158033449783912</v>
+        <v>0.1583989160791979</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -4377,7 +4374,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>0.1577308682800018</v>
+        <v>0.158033449783912</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -4385,7 +4382,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>0.157172478725107</v>
+        <v>0.1571825175995774</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -4417,7 +4414,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>0.1517709000371135</v>
+        <v>0.1523545134636539</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -4425,7 +4422,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>0.150970261093361</v>
+        <v>0.151764851628496</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -4433,7 +4430,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>0.1508079119170536</v>
+        <v>0.150970261093361</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -4457,7 +4454,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>0.1487723924024791</v>
+        <v>0.1487805992814857</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -4465,7 +4462,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>0.1486410275288457</v>
+        <v>0.1485942373360702</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -4769,7 +4766,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>0.1366248397078185</v>
+        <v>0.1368671386345199</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -4777,7 +4774,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>0.1364422373734946</v>
+        <v>0.1366248397078185</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -4785,7 +4782,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>0.1361717437452703</v>
+        <v>0.1364422373734946</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -4793,7 +4790,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>0.1360869637296269</v>
+        <v>0.1361717437452703</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -4801,7 +4798,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>0.1359362303811409</v>
+        <v>0.1360869637296269</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -4809,7 +4806,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>0.1358817477876932</v>
+        <v>0.1359362303811409</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -4817,7 +4814,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>0.1352645684596412</v>
+        <v>0.1358817477876932</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -4825,7 +4822,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>0.135018592405943</v>
+        <v>0.1352645684596412</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -4833,7 +4830,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>0.135011190031334</v>
+        <v>0.135018592405943</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -4841,7 +4838,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>0.1347303864977678</v>
+        <v>0.135011190031334</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -4865,7 +4862,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>0.1338225631519261</v>
+        <v>0.1338930055300602</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -4889,7 +4886,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>0.1328162682395062</v>
+        <v>0.1329957478589225</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -4897,7 +4894,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>0.1327671286728638</v>
+        <v>0.1328162682395062</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -4929,7 +4926,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>0.1287150198251348</v>
+        <v>0.127257975094351</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -4937,7 +4934,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>0.1263004220171087</v>
+        <v>0.1266814534151388</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -4945,7 +4942,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>0.1245036991107109</v>
+        <v>0.124527494945724</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -4953,7 +4950,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>0.1237367732038805</v>
+        <v>0.1245036991107109</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -4977,7 +4974,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>0.1154490761100095</v>
+        <v>0.1158931568712516</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -4985,7 +4982,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>0.112881172121243</v>
+        <v>0.1137248351197637</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -4993,7 +4990,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>0.112303430437489</v>
+        <v>0.112881172121243</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -5001,7 +4998,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>0.110840380654786</v>
+        <v>0.1110061991153271</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -5009,7 +5006,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>0.1103597757309891</v>
+        <v>0.1102754302519071</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -5017,7 +5014,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>0.1084445889267145</v>
+        <v>0.1084936610413627</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -5049,7 +5046,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>0.1044596642889097</v>
+        <v>0.1045342021541453</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -5073,7 +5070,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>0.09370697263942751</v>
+        <v>0.09416484809730297</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -5089,7 +5086,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>0.08990973390114432</v>
+        <v>0.08961291941833194</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -5097,7 +5094,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>0.08845827496910696</v>
+        <v>0.08891233479816685</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -5105,7 +5102,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>0.08794129640110948</v>
+        <v>0.08432743628728545</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -5113,7 +5110,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>0.08432743628728545</v>
+        <v>0.08304493230047627</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -5129,7 +5126,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>0.08304493230047627</v>
+        <v>0.08166331026883134</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -5137,7 +5134,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>0.0817465603520815</v>
+        <v>0.07991701360971071</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -5145,7 +5142,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>0.07991701360971071</v>
+        <v>0.07895137211023306</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -5209,7 +5206,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>0.067409443203998</v>
+        <v>0.06802974004203088</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -5217,7 +5214,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>0.06719865207468745</v>
+        <v>0.06785349972207699</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -5233,7 +5230,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>0.05843877674233688</v>
+        <v>0.05766765983785938</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -5241,7 +5238,7 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>0.05766765983785938</v>
+        <v>0.05601059843936862</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -5257,7 +5254,7 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>0.05601059843936862</v>
+        <v>0.05516469063631546</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -5265,7 +5262,7 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>0.05516469063631546</v>
+        <v>0.04943208077883021</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -5305,7 +5302,7 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>0.04943208077883021</v>
+        <v>0.0487291804441945</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -5313,7 +5310,7 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>0.04752906972161641</v>
+        <v>0.04714808502611323</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -5321,7 +5318,7 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>0.04714808502611323</v>
+        <v>0.04683107856121138</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -5329,7 +5326,7 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>0.04711209788648274</v>
+        <v>0.04683107856121138</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -5401,7 +5398,7 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>0.04683107856121138</v>
+        <v>0.04576459767988483</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -5409,7 +5406,7 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>0.04683107856121138</v>
+        <v>0.04556115363650393</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -5417,7 +5414,7 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>0.04600891900381265</v>
+        <v>0.0455457051034629</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -5425,7 +5422,7 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>0.04563453814795748</v>
+        <v>0.0451340034854073</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -5433,7 +5430,7 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>0.0451340034854073</v>
+        <v>0.04487624610717167</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -5441,7 +5438,7 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>0.03949517957866266</v>
+        <v>0.03995305503653812</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -5457,7 +5454,7 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>0.03807073914724435</v>
+        <v>0.0385286146051198</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -5465,7 +5462,7 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>0.03628972190306912</v>
+        <v>0.03682772556607361</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -5473,7 +5470,7 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>0.03581719721642584</v>
+        <v>0.03421463311386175</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -5481,7 +5478,7 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>0.03519802559143792</v>
+        <v>0.03359546148887382</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -5489,7 +5486,7 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>0.03462693621393353</v>
+        <v>0.03302437211136944</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -5505,7 +5502,7 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>0.03060771061581735</v>
+        <v>0.02968053099297996</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -5513,7 +5510,7 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>0.03055567137319781</v>
+        <v>0.02968053099297996</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -5521,7 +5518,7 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>0.02968053099297996</v>
+        <v>0.02900514651325325</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -5529,7 +5526,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>0.02968053099297996</v>
+        <v>0.02895310727063372</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -5537,7 +5534,7 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>0.02943087042653336</v>
+        <v>0.02827663439165873</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -5553,7 +5550,7 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>0.02827663439165873</v>
+        <v>0.02782830632396927</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -5641,7 +5638,7 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>0.01151188615451226</v>
+        <v>0.0118274395846214</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -5657,7 +5654,7 @@
         <v>478</v>
       </c>
       <c r="B480">
-        <v>0.006922148803962358</v>
+        <v>0.002120979360027864</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -5665,7 +5662,7 @@
         <v>479</v>
       </c>
       <c r="B481">
-        <v>0.006435535035179352</v>
+        <v>0.0009169700500847311</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -5673,14 +5670,6 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>0.002120979360027864</v>
-      </c>
-    </row>
-    <row r="483" spans="1:2">
-      <c r="A483" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="B483">
         <v>7.799230677507651e-05</v>
       </c>
     </row>
